--- a/MSI2.PROJ2/best-models/wykresy/model4-kernel1-12-12-kernel2-2-2-.xlsx
+++ b/MSI2.PROJ2/best-models/wykresy/model4-kernel1-12-12-kernel2-2-2-.xlsx
@@ -14,16 +14,12 @@
   <sheets>
     <sheet name="model4-kernel1-12-12-kernel2-2-" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>test_acc</t>
   </si>
@@ -44,6 +40,18 @@
   </si>
   <si>
     <t>val_loss</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>TIME</t>
   </si>
 </sst>
 </file>
@@ -545,8 +553,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1133,6 +1142,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,6 +2014,15 @@
                 <c:pt idx="31">
                   <c:v>5.5599999999999997E-2</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.98470199999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.98470199999999997</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2242,6 +2266,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>399.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2828,6 +2858,710 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15712270341207349"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.60669619422572174"/>
+          <c:h val="0.62271617089530473"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CNN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'model4-kernel1-12-12-kernel2-2-'!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>313.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>391.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>474.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>558.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>649.91999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>756.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>840.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>976.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1127.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1237.82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1328.84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1430.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1526.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1624.61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1721.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1811.97</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1914.64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2013.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2109.7600000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2203.5700000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2294.19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2385.4699999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2463.94</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2542.33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2621.29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2700.15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2778.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'model4-kernel1-12-12-kernel2-2-'!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98740000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9869</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98870000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98939999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98870000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98829999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.98880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.98829999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98909999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98929999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98950000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.98960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9889</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.98919999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98919999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEBA-480F-A2AB-A6778A46E96D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVN : C=2.4 G=0.014 czas = 399.09s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'model4-kernel1-12-12-kernel2-2-'!$D$40:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2778.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'model4-kernel1-12-12-kernel2-2-'!$C$40:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.98470199999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98470199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FEBA-480F-A2AB-A6778A46E96D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1942020912"/>
+        <c:axId val="1942026736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1942020912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1942026736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1942026736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.95000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Precyzja</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1942020912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77144104986876638"/>
+          <c:y val="0.2554159375911344"/>
+          <c:w val="0.22082553280839895"/>
+          <c:h val="0.43374038452805858"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2908,6 +3642,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3425,6 +4199,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4006,925 +5296,37 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="model4-kernel1-7-7-kernel2-2-2-"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>test_acc</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>train_acc</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>val_acc</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1</v>
-          </cell>
-          <cell r="B3">
-            <v>0.9728</v>
-          </cell>
-          <cell r="E3">
-            <v>0.93579999999999997</v>
-          </cell>
-          <cell r="G3">
-            <v>0.97170000000000001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2</v>
-          </cell>
-          <cell r="B4">
-            <v>0.98240000000000005</v>
-          </cell>
-          <cell r="E4">
-            <v>0.98019999999999996</v>
-          </cell>
-          <cell r="G4">
-            <v>0.98140000000000005</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>3</v>
-          </cell>
-          <cell r="B5">
-            <v>0.98729999999999996</v>
-          </cell>
-          <cell r="E5">
-            <v>0.98629999999999995</v>
-          </cell>
-          <cell r="G5">
-            <v>0.98460000000000003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>4</v>
-          </cell>
-          <cell r="B6">
-            <v>0.98819999999999997</v>
-          </cell>
-          <cell r="E6">
-            <v>0.98960000000000004</v>
-          </cell>
-          <cell r="G6">
-            <v>0.98660000000000003</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>5</v>
-          </cell>
-          <cell r="B7">
-            <v>0.98780000000000001</v>
-          </cell>
-          <cell r="E7">
-            <v>0.99139999999999995</v>
-          </cell>
-          <cell r="G7">
-            <v>0.98719999999999997</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>6</v>
-          </cell>
-          <cell r="B8">
-            <v>0.98709999999999998</v>
-          </cell>
-          <cell r="E8">
-            <v>0.99339999999999995</v>
-          </cell>
-          <cell r="G8">
-            <v>0.98509999999999998</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>7</v>
-          </cell>
-          <cell r="B9">
-            <v>0.98719999999999997</v>
-          </cell>
-          <cell r="E9">
-            <v>0.99390000000000001</v>
-          </cell>
-          <cell r="G9">
-            <v>0.98550000000000004</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>8</v>
-          </cell>
-          <cell r="B10">
-            <v>0.98950000000000005</v>
-          </cell>
-          <cell r="E10">
-            <v>0.99560000000000004</v>
-          </cell>
-          <cell r="G10">
-            <v>0.98719999999999997</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>9</v>
-          </cell>
-          <cell r="B11">
-            <v>0.98960000000000004</v>
-          </cell>
-          <cell r="E11">
-            <v>0.99639999999999995</v>
-          </cell>
-          <cell r="G11">
-            <v>0.98750000000000004</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>10</v>
-          </cell>
-          <cell r="B12">
-            <v>0.98819999999999997</v>
-          </cell>
-          <cell r="E12">
-            <v>0.99719999999999998</v>
-          </cell>
-          <cell r="G12">
-            <v>0.98780000000000001</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>11</v>
-          </cell>
-          <cell r="B13">
-            <v>0.98799999999999999</v>
-          </cell>
-          <cell r="E13">
-            <v>0.99780000000000002</v>
-          </cell>
-          <cell r="G13">
-            <v>0.98650000000000004</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>12</v>
-          </cell>
-          <cell r="B14">
-            <v>0.98819999999999997</v>
-          </cell>
-          <cell r="E14">
-            <v>0.99829999999999997</v>
-          </cell>
-          <cell r="G14">
-            <v>0.9879</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>13</v>
-          </cell>
-          <cell r="B15">
-            <v>0.98960000000000004</v>
-          </cell>
-          <cell r="E15">
-            <v>0.99839999999999995</v>
-          </cell>
-          <cell r="G15">
-            <v>0.98670000000000002</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>14</v>
-          </cell>
-          <cell r="B16">
-            <v>0.98860000000000003</v>
-          </cell>
-          <cell r="E16">
-            <v>0.99880000000000002</v>
-          </cell>
-          <cell r="G16">
-            <v>0.98709999999999998</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>15</v>
-          </cell>
-          <cell r="B17">
-            <v>0.98809999999999998</v>
-          </cell>
-          <cell r="E17">
-            <v>0.99909999999999999</v>
-          </cell>
-          <cell r="G17">
-            <v>0.98719999999999997</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>16</v>
-          </cell>
-          <cell r="B18">
-            <v>0.98919999999999997</v>
-          </cell>
-          <cell r="E18">
-            <v>0.99939999999999996</v>
-          </cell>
-          <cell r="G18">
-            <v>0.98819999999999997</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>17</v>
-          </cell>
-          <cell r="B19">
-            <v>0.98919999999999997</v>
-          </cell>
-          <cell r="E19">
-            <v>0.99939999999999996</v>
-          </cell>
-          <cell r="G19">
-            <v>0.98819999999999997</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>18</v>
-          </cell>
-          <cell r="B20">
-            <v>0.98850000000000005</v>
-          </cell>
-          <cell r="E20">
-            <v>0.99960000000000004</v>
-          </cell>
-          <cell r="G20">
-            <v>0.98719999999999997</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>19</v>
-          </cell>
-          <cell r="B21">
-            <v>0.98870000000000002</v>
-          </cell>
-          <cell r="E21">
-            <v>0.99970000000000003</v>
-          </cell>
-          <cell r="G21">
-            <v>0.98750000000000004</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>20</v>
-          </cell>
-          <cell r="B22">
-            <v>0.9899</v>
-          </cell>
-          <cell r="E22">
-            <v>0.99980000000000002</v>
-          </cell>
-          <cell r="G22">
-            <v>0.98819999999999997</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>21</v>
-          </cell>
-          <cell r="B23">
-            <v>0.98899999999999999</v>
-          </cell>
-          <cell r="E23">
-            <v>0.99980000000000002</v>
-          </cell>
-          <cell r="G23">
-            <v>0.98770000000000002</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>22</v>
-          </cell>
-          <cell r="B24">
-            <v>0.98899999999999999</v>
-          </cell>
-          <cell r="E24">
-            <v>0.99990000000000001</v>
-          </cell>
-          <cell r="G24">
-            <v>0.98829999999999996</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>23</v>
-          </cell>
-          <cell r="B25">
-            <v>0.98980000000000001</v>
-          </cell>
-          <cell r="E25">
-            <v>0.99990000000000001</v>
-          </cell>
-          <cell r="G25">
-            <v>0.98770000000000002</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>24</v>
-          </cell>
-          <cell r="B26">
-            <v>0.98950000000000005</v>
-          </cell>
-          <cell r="E26">
-            <v>1</v>
-          </cell>
-          <cell r="G26">
-            <v>0.98829999999999996</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>25</v>
-          </cell>
-          <cell r="B27">
-            <v>0.99</v>
-          </cell>
-          <cell r="E27">
-            <v>1</v>
-          </cell>
-          <cell r="G27">
-            <v>0.98819999999999997</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>26</v>
-          </cell>
-          <cell r="B28">
-            <v>0.98970000000000002</v>
-          </cell>
-          <cell r="E28">
-            <v>0.99990000000000001</v>
-          </cell>
-          <cell r="G28">
-            <v>0.98809999999999998</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>27</v>
-          </cell>
-          <cell r="B29">
-            <v>0.98950000000000005</v>
-          </cell>
-          <cell r="E29">
-            <v>1</v>
-          </cell>
-          <cell r="G29">
-            <v>0.98809999999999998</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>28</v>
-          </cell>
-          <cell r="B30">
-            <v>0.98970000000000002</v>
-          </cell>
-          <cell r="E30">
-            <v>1</v>
-          </cell>
-          <cell r="G30">
-            <v>0.98860000000000003</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>29</v>
-          </cell>
-          <cell r="B31">
-            <v>0.98929999999999996</v>
-          </cell>
-          <cell r="E31">
-            <v>1</v>
-          </cell>
-          <cell r="G31">
-            <v>0.98809999999999998</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>30</v>
-          </cell>
-          <cell r="B32">
-            <v>0.98950000000000005</v>
-          </cell>
-          <cell r="E32">
-            <v>1</v>
-          </cell>
-          <cell r="G32">
-            <v>0.98819999999999997</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="model4-kernel1-7-7-kernel2-7-7-"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>test_loss</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>train_loss</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>val_loss</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>10</v>
-          </cell>
-          <cell r="F2">
-            <v>10</v>
-          </cell>
-          <cell r="H2">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1</v>
-          </cell>
-          <cell r="C3">
-            <v>5.4100000000000002E-2</v>
-          </cell>
-          <cell r="F3">
-            <v>0.20100000000000001</v>
-          </cell>
-          <cell r="H3">
-            <v>7.0300000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2</v>
-          </cell>
-          <cell r="C4">
-            <v>5.0799999999999998E-2</v>
-          </cell>
-          <cell r="F4">
-            <v>5.7599999999999998E-2</v>
-          </cell>
-          <cell r="H4">
-            <v>5.8099999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>3</v>
-          </cell>
-          <cell r="C5">
-            <v>4.4499999999999998E-2</v>
-          </cell>
-          <cell r="F5">
-            <v>3.9399999999999998E-2</v>
-          </cell>
-          <cell r="H5">
-            <v>5.62E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>4</v>
-          </cell>
-          <cell r="C6">
-            <v>3.1099999999999999E-2</v>
-          </cell>
-          <cell r="F6">
-            <v>2.92E-2</v>
-          </cell>
-          <cell r="H6">
-            <v>4.2000000000000003E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>5</v>
-          </cell>
-          <cell r="C7">
-            <v>3.2399999999999998E-2</v>
-          </cell>
-          <cell r="F7">
-            <v>2.1700000000000001E-2</v>
-          </cell>
-          <cell r="H7">
-            <v>3.9100000000000003E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>6</v>
-          </cell>
-          <cell r="C8">
-            <v>3.5200000000000002E-2</v>
-          </cell>
-          <cell r="F8">
-            <v>1.7600000000000001E-2</v>
-          </cell>
-          <cell r="H8">
-            <v>4.1799999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>7</v>
-          </cell>
-          <cell r="C9">
-            <v>3.7499999999999999E-2</v>
-          </cell>
-          <cell r="F9">
-            <v>1.34E-2</v>
-          </cell>
-          <cell r="H9">
-            <v>4.2700000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>8</v>
-          </cell>
-          <cell r="C10">
-            <v>3.7499999999999999E-2</v>
-          </cell>
-          <cell r="F10">
-            <v>1.0200000000000001E-2</v>
-          </cell>
-          <cell r="H10">
-            <v>4.3900000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>9</v>
-          </cell>
-          <cell r="C11">
-            <v>4.19E-2</v>
-          </cell>
-          <cell r="F11">
-            <v>8.6999999999999994E-3</v>
-          </cell>
-          <cell r="H11">
-            <v>4.7E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>10</v>
-          </cell>
-          <cell r="C12">
-            <v>4.6100000000000002E-2</v>
-          </cell>
-          <cell r="F12">
-            <v>5.8999999999999999E-3</v>
-          </cell>
-          <cell r="H12">
-            <v>4.99E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>11</v>
-          </cell>
-          <cell r="C13">
-            <v>5.28E-2</v>
-          </cell>
-          <cell r="F13">
-            <v>4.5999999999999999E-3</v>
-          </cell>
-          <cell r="H13">
-            <v>5.9299999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>12</v>
-          </cell>
-          <cell r="C14">
-            <v>4.7800000000000002E-2</v>
-          </cell>
-          <cell r="F14">
-            <v>4.1000000000000003E-3</v>
-          </cell>
-          <cell r="H14">
-            <v>5.4300000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>13</v>
-          </cell>
-          <cell r="C15">
-            <v>4.4200000000000003E-2</v>
-          </cell>
-          <cell r="F15">
-            <v>2.8999999999999998E-3</v>
-          </cell>
-          <cell r="H15">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>14</v>
-          </cell>
-          <cell r="C16">
-            <v>5.0900000000000001E-2</v>
-          </cell>
-          <cell r="F16">
-            <v>2.5999999999999999E-3</v>
-          </cell>
-          <cell r="H16">
-            <v>5.74E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>15</v>
-          </cell>
-          <cell r="C17">
-            <v>5.0099999999999999E-2</v>
-          </cell>
-          <cell r="F17">
-            <v>1.2999999999999999E-3</v>
-          </cell>
-          <cell r="H17">
-            <v>5.5199999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>16</v>
-          </cell>
-          <cell r="C18">
-            <v>5.3600000000000002E-2</v>
-          </cell>
-          <cell r="F18">
-            <v>6.9999999999999999E-4</v>
-          </cell>
-          <cell r="H18">
-            <v>6.0999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>17</v>
-          </cell>
-          <cell r="C19">
-            <v>5.3100000000000001E-2</v>
-          </cell>
-          <cell r="F19">
-            <v>6.9999999999999999E-4</v>
-          </cell>
-          <cell r="H19">
-            <v>5.5800000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>18</v>
-          </cell>
-          <cell r="C20">
-            <v>5.57E-2</v>
-          </cell>
-          <cell r="F20">
-            <v>2.9999999999999997E-4</v>
-          </cell>
-          <cell r="H20">
-            <v>6.1400000000000003E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>19</v>
-          </cell>
-          <cell r="C21">
-            <v>5.5500000000000001E-2</v>
-          </cell>
-          <cell r="F21">
-            <v>2.9999999999999997E-4</v>
-          </cell>
-          <cell r="H21">
-            <v>6.2799999999999995E-2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>20</v>
-          </cell>
-          <cell r="C22">
-            <v>5.3999999999999999E-2</v>
-          </cell>
-          <cell r="F22">
-            <v>1E-4</v>
-          </cell>
-          <cell r="H22">
-            <v>6.1499999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>21</v>
-          </cell>
-          <cell r="C23">
-            <v>5.5800000000000002E-2</v>
-          </cell>
-          <cell r="F23">
-            <v>0</v>
-          </cell>
-          <cell r="H23">
-            <v>6.2100000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>22</v>
-          </cell>
-          <cell r="C24">
-            <v>5.7200000000000001E-2</v>
-          </cell>
-          <cell r="F24">
-            <v>0</v>
-          </cell>
-          <cell r="H24">
-            <v>6.3399999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>23</v>
-          </cell>
-          <cell r="C25">
-            <v>5.7000000000000002E-2</v>
-          </cell>
-          <cell r="F25">
-            <v>0</v>
-          </cell>
-          <cell r="H25">
-            <v>6.4000000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>24</v>
-          </cell>
-          <cell r="C26">
-            <v>5.7799999999999997E-2</v>
-          </cell>
-          <cell r="F26">
-            <v>0</v>
-          </cell>
-          <cell r="H26">
-            <v>6.4699999999999994E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>25</v>
-          </cell>
-          <cell r="C27">
-            <v>5.8200000000000002E-2</v>
-          </cell>
-          <cell r="F27">
-            <v>0</v>
-          </cell>
-          <cell r="H27">
-            <v>6.5199999999999994E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>26</v>
-          </cell>
-          <cell r="C28">
-            <v>5.8799999999999998E-2</v>
-          </cell>
-          <cell r="F28">
-            <v>0</v>
-          </cell>
-          <cell r="H28">
-            <v>6.5600000000000006E-2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>27</v>
-          </cell>
-          <cell r="C29">
-            <v>5.9299999999999999E-2</v>
-          </cell>
-          <cell r="F29">
-            <v>0</v>
-          </cell>
-          <cell r="H29">
-            <v>6.6100000000000006E-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>28</v>
-          </cell>
-          <cell r="C30">
-            <v>5.9400000000000001E-2</v>
-          </cell>
-          <cell r="F30">
-            <v>0</v>
-          </cell>
-          <cell r="H30">
-            <v>6.6600000000000006E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>29</v>
-          </cell>
-          <cell r="C31">
-            <v>5.9799999999999999E-2</v>
-          </cell>
-          <cell r="F31">
-            <v>0</v>
-          </cell>
-          <cell r="H31">
-            <v>6.6900000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>30</v>
-          </cell>
-          <cell r="C32">
-            <v>0.06</v>
-          </cell>
-          <cell r="F32">
-            <v>0</v>
-          </cell>
-          <cell r="H32">
-            <v>6.7199999999999996E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5190,10 +5592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6027,6 +6429,42 @@
         <v>6.0199999999999997E-2</v>
       </c>
     </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>0.98470199999999997</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>399.09</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>0.98470199999999997</v>
+      </c>
+      <c r="D41">
+        <v>2778.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/MSI2.PROJ2/best-models/wykresy/model4-kernel1-12-12-kernel2-2-2-.xlsx
+++ b/MSI2.PROJ2/best-models/wykresy/model4-kernel1-12-12-kernel2-2-2-.xlsx
@@ -2872,48 +2872,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15712270341207349"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.60669619422572174"/>
-          <c:h val="0.62271617089530473"/>
+          <c:x val="8.6543486912161155E-2"/>
+          <c:y val="0.11058604318719606"/>
+          <c:w val="0.7048934026931245"/>
+          <c:h val="0.68384309610718419"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3490,9 +3459,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.77144104986876638"/>
-          <c:y val="0.2554159375911344"/>
-          <c:w val="0.22082553280839895"/>
+          <c:x val="0.8082649911939096"/>
+          <c:y val="0.25541584717765881"/>
+          <c:w val="0.18860461222153413"/>
           <c:h val="0.43374038452805858"/>
         </c:manualLayout>
       </c:layout>
@@ -5304,10 +5273,10 @@
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5594,8 +5563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MSI2.PROJ2/best-models/wykresy/model4-kernel1-12-12-kernel2-2-2-.xlsx
+++ b/MSI2.PROJ2/best-models/wykresy/model4-kernel1-12-12-kernel2-2-2-.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mabien\source\repos\MINI.MSI2\MSI2.PROJ2\best-models\wykresy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bi3NioL\Source\Repos\MINI.MSI2\MSI2.PROJ2\best-models\wykresy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -558,48 +558,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akcent 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akcent 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akcent 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akcent 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akcent 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akcent 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Dane wejściowe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Dane wyjściowe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Dobry" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Komórka połączona" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Komórka zaznaczona" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutralny" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Obliczenia" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Suma" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Tekst objaśnienia" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Tekst ostrzeżenia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Tytuł" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Uwaga" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Zły" xfId="7" builtinId="27" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -617,7 +617,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -628,38 +628,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1443,7 +1412,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1456,13 +1425,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
+                  <a:rPr lang="pl-PL" sz="1050"/>
                   <a:t>Liczba epok</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1476,7 +1444,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1514,7 +1482,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1562,7 +1530,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1575,13 +1543,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
+                  <a:rPr lang="pl-PL" sz="1050"/>
                   <a:t>Precyzja</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1595,7 +1562,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1633,7 +1600,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1660,38 +1627,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1732,7 +1667,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1743,38 +1678,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2567,7 +2471,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2580,18 +2484,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
+                  <a:rPr lang="pl-PL" sz="1050"/>
                   <a:t>Licba</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:rPr lang="pl-PL" sz="1050" baseline="0"/>
                   <a:t> epok</a:t>
                 </a:r>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="pl-PL" sz="1050"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2605,7 +2508,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2643,7 +2546,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2691,7 +2594,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2704,13 +2607,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
+                  <a:rPr lang="pl-PL" sz="1050"/>
                   <a:t>Loss</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2724,7 +2626,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2762,7 +2664,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2789,38 +2691,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2861,7 +2731,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3255,7 +3125,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3374,7 +3243,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5211,12 +5079,18 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>103500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5236,19 +5110,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>585788</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>17775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5267,20 +5147,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5563,8 +5449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="U39" sqref="U39"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
